--- a/VBA/Lego_LineareFunktion.xlsx
+++ b/VBA/Lego_LineareFunktion.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\Lego_EV3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BA5C5-B2A5-49D4-9EA2-26FB1C22A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LineareFunktion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,15 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -517,16 +520,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1913,7 +1925,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2193,55 +2211,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="14" t="s">
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="M3" s="29" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="M3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="P3" s="30" t="s">
+      <c r="N3" s="32"/>
+      <c r="P3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="30"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M4" s="27" t="s">
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M6" s="25" t="s">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2266,23 +2284,23 @@
       <c r="K7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <v>0</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="21">
         <f>M7*$G$8+$H$8</f>
         <v>-25</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="14">
         <f>B8</f>
         <v>100</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="15">
         <f>C8</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -2311,434 +2329,434 @@
         <f>J8*G8+H8</f>
         <v>37.5</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="17">
         <f>M7+$N$4</f>
         <v>5</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="16">
         <f t="shared" ref="N8:N41" si="0">M8*$G$8+$H$8</f>
         <v>-18.75</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="18">
         <f>D8</f>
         <v>20</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="19">
         <f>E8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M9" s="20">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M9" s="17">
         <f t="shared" ref="M9:M41" si="1">M8+$N$4</f>
         <v>10</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
         <v>-12.5</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M10" s="20">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M10" s="17">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="16">
         <f t="shared" si="0"/>
         <v>-6.25</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M11" s="20">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M11" s="17">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M12" s="20">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M12" s="17">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="16">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M13" s="20">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M13" s="17">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="30"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="20">
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M14" s="17">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="16">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M15" s="20">
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M15" s="17">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M16" s="20">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M16" s="17">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="16">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="14">
         <f>J8</f>
         <v>50</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M17" s="20">
+    <row r="17" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M17" s="17">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="16">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="18">
         <f>P16</f>
         <v>50</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="19">
         <f>K8</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="20">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M18" s="17">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="16">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
     </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M19" s="20">
+    <row r="19" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M19" s="17">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M20" s="20">
+    <row r="20" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M20" s="17">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="16">
         <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
     </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M21" s="20">
+    <row r="21" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M21" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="16">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="P21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M22" s="20">
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M22" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="16">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
     </row>
-    <row r="23" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="20">
+    <row r="23" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M23" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="16">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="32" t="s">
+      <c r="Q23" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M24" s="20">
+    <row r="24" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M24" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="16">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="14">
         <v>0</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="15">
         <f>Q17</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="25" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M25" s="20">
+    <row r="25" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M25" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="16">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="18">
         <f>P17</f>
         <v>50</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="19">
         <f>Q24</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M26" s="20">
+    <row r="26" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M26" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="16">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
     </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M27" s="20">
+    <row r="27" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M27" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="16">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M28" s="20">
+    <row r="28" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M28" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="16">
         <f t="shared" si="0"/>
         <v>106.25</v>
       </c>
     </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M29" s="20">
+    <row r="29" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M29" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="16">
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="P29" s="30" t="s">
+      <c r="P29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M30" s="20">
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M30" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="16">
         <f t="shared" si="0"/>
         <v>118.75</v>
       </c>
     </row>
-    <row r="31" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M31" s="20">
+    <row r="31" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M31" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N31" s="16">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" s="32" t="s">
+      <c r="Q31" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="20">
+    <row r="32" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M32" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="16">
         <f t="shared" si="0"/>
         <v>131.25</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="14">
         <f>P25</f>
         <v>50</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="15">
         <f>Q25</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M33" s="20">
+    <row r="33" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M33" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="16">
         <f t="shared" si="0"/>
         <v>137.5</v>
       </c>
     </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M34" s="20">
+    <row r="34" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M34" s="17">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="16">
         <f t="shared" si="0"/>
         <v>143.75</v>
       </c>
     </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="20">
+    <row r="35" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M35" s="17">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="16">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="20">
+    <row r="36" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M36" s="17">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="16">
         <f t="shared" si="0"/>
         <v>156.25</v>
       </c>
-      <c r="P36" s="30" t="s">
+      <c r="P36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q36" s="30"/>
-    </row>
-    <row r="37" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M37" s="20">
+      <c r="Q36" s="28"/>
+    </row>
+    <row r="37" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M37" s="17">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N37" s="16">
         <f t="shared" si="0"/>
         <v>162.5</v>
       </c>
     </row>
-    <row r="38" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M38" s="20">
+    <row r="38" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M38" s="17">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="16">
         <f t="shared" si="0"/>
         <v>168.75</v>
       </c>
-      <c r="P38" s="31" t="s">
+      <c r="P38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="32" t="s">
+      <c r="Q38" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M39" s="20">
+    <row r="39" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M39" s="17">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="16">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="14">
         <f>M41</f>
         <v>170</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M40" s="20">
+    <row r="40" spans="13:17" x14ac:dyDescent="0.35">
+      <c r="M40" s="17">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="16">
         <f t="shared" si="0"/>
         <v>181.25</v>
       </c>
     </row>
-    <row r="41" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M41" s="21">
+    <row r="41" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M41" s="18">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="19">
         <f t="shared" si="0"/>
         <v>187.5</v>
       </c>

--- a/VBA/Lego_LineareFunktion.xlsx
+++ b/VBA/Lego_LineareFunktion.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\VBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Documents\Source-Code\Source-Code\VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BA5C5-B2A5-49D4-9EA2-26FB1C22A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="LineareFunktion" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>P1x</t>
   </si>
@@ -85,12 +84,21 @@
   <si>
     <t>Skala</t>
   </si>
+  <si>
+    <t>Resultate anzeigen:</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +122,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -463,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,11 +562,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,109 +762,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18.75</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.25</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.75</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.25</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.75</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>62.5</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.75</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>93.75</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>106.25</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>112.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>118.75</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>131.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>143.75</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>156.25</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>162.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>168.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>181.25</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>187.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,7 +919,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -949,10 +986,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +1004,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +1056,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,10 +1068,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1128,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1140,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.5</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,17 +2248,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
@@ -2236,7 +2281,14 @@
       </c>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
@@ -2244,8 +2296,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="22" t="s">
         <v>6</v>
       </c>
@@ -2259,7 +2311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2289,20 +2341,20 @@
       </c>
       <c r="N7" s="21">
         <f>M7*$G$8+$H$8</f>
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="P7" s="14">
         <f>B8</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="15">
         <f>C8</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C8" s="6">
         <v>100</v>
@@ -2316,26 +2368,26 @@
       <c r="F8" s="1"/>
       <c r="G8" s="8">
         <f>(E8-C8)/(D8-B8)</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9">
         <f>E8-G8*D8</f>
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="J8" s="13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K8" s="11">
         <f>J8*G8+H8</f>
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="M8" s="17">
         <f>M7+$N$4</f>
         <v>5</v>
       </c>
       <c r="N8" s="16">
-        <f t="shared" ref="N8:N41" si="0">M8*$G$8+$H$8</f>
-        <v>-18.75</v>
+        <f>M8*$G$8+$H$8</f>
+        <v>-15</v>
       </c>
       <c r="P8" s="18">
         <f>D8</f>
@@ -2346,78 +2398,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M9" s="17">
-        <f t="shared" ref="M9:M41" si="1">M8+$N$4</f>
+        <f t="shared" ref="M9:M41" si="0">M8+$N$4</f>
         <v>10</v>
       </c>
       <c r="N9" s="16">
-        <f t="shared" si="0"/>
-        <v>-12.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N8:N41" si="1">M9*$G$8+$H$8</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="0"/>
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="0"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="P15" s="26" t="s">
         <v>6</v>
@@ -2426,103 +2478,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="0"/>
-        <v>31.25</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="P16" s="14">
         <f>J8</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="P17" s="18">
         <f>P16</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="19">
         <f>K8</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="N18" s="16">
-        <f t="shared" si="0"/>
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="17">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="17">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="1"/>
         <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.35">
-      <c r="M20" s="17">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" si="0"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.35">
-      <c r="M21" s="17">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="N21" s="16">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Q21" s="28"/>
     </row>
-    <row r="22" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="0"/>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="23" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="P23" s="26" t="s">
         <v>6</v>
@@ -2531,103 +2583,103 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="0"/>
-        <v>81.25</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
       </c>
       <c r="Q24" s="15">
         <f>Q17</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="25" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="P25" s="18">
         <f>P17</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="19">
         <f>Q24</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="0"/>
-        <v>106.25</v>
-      </c>
-    </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="P29" s="28" t="s">
         <v>14</v>
       </c>
       <c r="Q29" s="28"/>
     </row>
-    <row r="30" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" si="0"/>
-        <v>118.75</v>
-      </c>
-    </row>
-    <row r="31" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="P31" s="26" t="s">
         <v>6</v>
@@ -2636,86 +2688,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="13:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" si="0"/>
-        <v>131.25</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="P32" s="14">
         <f>P25</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="15">
         <f>Q25</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-    </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="0"/>
-        <v>143.75</v>
-      </c>
-    </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="N35" s="16">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="N36" s="16">
-        <f t="shared" si="0"/>
-        <v>156.25</v>
+        <f t="shared" si="1"/>
+        <v>125</v>
       </c>
       <c r="P36" s="28" t="s">
         <v>15</v>
       </c>
       <c r="Q36" s="28"/>
     </row>
-    <row r="37" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="N37" s="16">
-        <f t="shared" si="0"/>
-        <v>162.5</v>
-      </c>
-    </row>
-    <row r="38" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="N38" s="16">
-        <f t="shared" si="0"/>
-        <v>168.75</v>
+        <f t="shared" si="1"/>
+        <v>135</v>
       </c>
       <c r="P38" s="26" t="s">
         <v>6</v>
@@ -2724,14 +2776,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="N39" s="16">
-        <f t="shared" si="0"/>
-        <v>175</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="P39" s="14">
         <f>M41</f>
@@ -2741,28 +2793,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="N40" s="16">
-        <f t="shared" si="0"/>
-        <v>181.25</v>
-      </c>
-    </row>
-    <row r="41" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M41" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="0"/>
-        <v>187.5</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="M3:N3"/>
@@ -2770,7 +2822,18 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
+  <conditionalFormatting sqref="G8:H8 K8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$K$4=$L$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+      <formula1>$K$1:$L$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
